--- a/Tableau métriques/Evolutions métriques/evo_running.xlsx
+++ b/Tableau métriques/Evolutions métriques/evo_running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Documents\Programmation\Github\Stage CF63\Tableau métriques\Evolutions métriques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C803E607-A364-4066-B0B3-E31F20050CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB76BED-DDDF-4159-9BE7-207D10A245BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
-  <si>
-    <t>running</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>2021_2022</t>
   </si>
@@ -61,7 +59,7 @@
     <t>count_coming_short_runs_leading_to_goal_per_match</t>
   </si>
   <si>
-    <t>count_dropping_off_runs_in_sample</t>
+    <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
   </si>
   <si>
     <t>count_dropping_off_runs_per_match</t>
@@ -112,9 +110,6 @@
     <t>count_underlap_runs_per_match</t>
   </si>
   <si>
-    <t>count_underlap_runs_in_sample</t>
-  </si>
-  <si>
     <t>count_coming_short_runs_received_per_match</t>
   </si>
   <si>
@@ -145,9 +140,6 @@
     <t>count_coming_short_runs_per_match</t>
   </si>
   <si>
-    <t>count_coming_short_runs_in_sample</t>
-  </si>
-  <si>
     <t>count_dangerous_cross_receiver_runs_received_per_match</t>
   </si>
   <si>
@@ -163,9 +155,6 @@
     <t>count_underlap_runs_targeted_per_match</t>
   </si>
   <si>
-    <t>count_cross_receiver_runs_in_sample</t>
-  </si>
-  <si>
     <t>count_cross_receiver_runs_per_match</t>
   </si>
   <si>
@@ -187,6 +176,9 @@
     <t>count_dangerous_overlap_runs_targeted_per_match</t>
   </si>
   <si>
+    <t>count_dangerous_dropping_off_runs_per_match</t>
+  </si>
+  <si>
     <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
   </si>
   <si>
@@ -241,7 +233,7 @@
     <t>count_pulling_wide_runs_per_match</t>
   </si>
   <si>
-    <t>count_pulling_wide_runs_in_sample</t>
+    <t>count_overlap_runs_leading_to_goal_per_match</t>
   </si>
   <si>
     <t>count_pulling_wide_runs_targeted_per_match</t>
@@ -289,27 +281,15 @@
     <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
   </si>
   <si>
-    <t>count_support_runs_in_sample</t>
-  </si>
-  <si>
     <t>count_support_runs_per_match</t>
   </si>
   <si>
-    <t>count_overlap_runs_in_sample</t>
-  </si>
-  <si>
     <t>count_overlap_runs_per_match</t>
   </si>
   <si>
     <t>count_runs_in_behind_per_match</t>
   </si>
   <si>
-    <t>count_runs_in_behind_in_sample</t>
-  </si>
-  <si>
-    <t>count_runs_ahead_of_the_ball_in_sample</t>
-  </si>
-  <si>
     <t>count_runs_ahead_of_the_ball_per_match</t>
   </si>
   <si>
@@ -364,37 +344,25 @@
     <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
   </si>
   <si>
+    <t>count_dangerous_coming_short_runs_per_match</t>
+  </si>
+  <si>
+    <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+  </si>
+  <si>
     <t>pulling_half_space_runs_targeted_threat_per_match</t>
   </si>
   <si>
+    <t>count_pulling_half_space_runs_targeted_per_match</t>
+  </si>
+  <si>
     <t>pulling_half_space_runs_threat_per_match</t>
   </si>
   <si>
+    <t>count_pulling_half_space_runs_per_match</t>
+  </si>
+  <si>
     <t>count_pulling_half_space_runs_received_per_match</t>
-  </si>
-  <si>
-    <t>count_pulling_half_space_runs_per_match</t>
-  </si>
-  <si>
-    <t>count_pulling_half_space_runs_in_sample</t>
-  </si>
-  <si>
-    <t>count_pulling_half_space_runs_targeted_per_match</t>
-  </si>
-  <si>
-    <t>count_dropping_off_runs_leading_to_goal_per_match</t>
-  </si>
-  <si>
-    <t>count_dangerous_coming_short_runs_per_match</t>
-  </si>
-  <si>
-    <t>count_overlap_runs_leading_to_goal_per_match</t>
-  </si>
-  <si>
-    <t>count_dangerous_dropping_off_runs_per_match</t>
-  </si>
-  <si>
-    <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
   </si>
 </sst>
 </file>
@@ -757,35 +725,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.21875" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8.2383220541115288E-3</v>
@@ -797,12 +765,12 @@
         <v>2.5436468857521492E-2</v>
       </c>
       <c r="E2">
-        <v>208.75788407454669</v>
+        <v>208.76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1.257738881577891E-2</v>
@@ -814,12 +782,12 @@
         <v>3.7715194952037047E-2</v>
       </c>
       <c r="E3">
-        <v>199.8650634440244</v>
+        <v>199.87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>5.6484013062960432E-3</v>
@@ -828,32 +796,32 @@
         <v>7.2712418300653597E-3</v>
       </c>
       <c r="D4">
-        <v>1.2094989726568681E-2</v>
+        <v>1.209498972656867E-2</v>
       </c>
       <c r="E4">
-        <v>114.1312040468315</v>
+        <v>114.13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1.4529980253664469E-2</v>
+        <v>1.4529980253664461E-2</v>
       </c>
       <c r="C5">
-        <v>5.8751608751608751E-3</v>
+        <v>5.8751608751608743E-3</v>
       </c>
       <c r="D5">
         <v>2.5250908803540379E-2</v>
       </c>
       <c r="E5">
-        <v>73.78488038324825</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1.105775803144224E-2</v>
@@ -865,15 +833,15 @@
         <v>1.867196143511933E-2</v>
       </c>
       <c r="E6">
-        <v>68.858473679985039</v>
+        <v>68.86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>8.0991261153799843E-2</v>
+        <v>8.0991261153799857E-2</v>
       </c>
       <c r="C7">
         <v>0.122640309583034</v>
@@ -882,12 +850,12 @@
         <v>0.13497784221468431</v>
       </c>
       <c r="E7">
-        <v>66.65729152971906</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5.6484013062960432E-3</v>
@@ -899,46 +867,46 @@
         <v>9.3547494863284349E-3</v>
       </c>
       <c r="E8">
-        <v>65.617649650726406</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1.477350410399946E-2</v>
       </c>
       <c r="C9">
-        <v>1.9956724144030651E-2</v>
+        <v>1.995672414403064E-2</v>
       </c>
       <c r="D9">
         <v>2.41544175754702E-2</v>
       </c>
       <c r="E9">
-        <v>63.498229028353272</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>10.271436060754951</v>
+        <v>1.801294740923224E-2</v>
       </c>
       <c r="C10">
-        <v>11.73936948950881</v>
+        <v>1.6099485658309189E-2</v>
       </c>
       <c r="D10">
-        <v>16.036965356044309</v>
+        <v>7.8965605281394752E-3</v>
       </c>
       <c r="E10">
-        <v>56.131676828698417</v>
+        <v>-56.16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>10.271436060754951</v>
@@ -947,32 +915,32 @@
         <v>11.73936948950881</v>
       </c>
       <c r="D11">
-        <v>16.036965356044309</v>
+        <v>16.036965356044298</v>
       </c>
       <c r="E11">
-        <v>56.131676828698417</v>
+        <v>56.13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4.0392431605666914</v>
+        <v>4.0392431605666896</v>
       </c>
       <c r="C12">
         <v>4.5919616536644403</v>
       </c>
       <c r="D12">
-        <v>6.2013667007088058</v>
+        <v>6.2013667007088049</v>
       </c>
       <c r="E12">
-        <v>53.527937145501717</v>
+        <v>53.53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>4.1892163104353504</v>
@@ -981,15 +949,15 @@
         <v>4.7623526187922476</v>
       </c>
       <c r="D13">
-        <v>6.4243793388530221</v>
+        <v>6.4243793388530239</v>
       </c>
       <c r="E13">
-        <v>53.355159122480117</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.1587210511668716</v>
@@ -1001,15 +969,15 @@
         <v>0.24045209176788121</v>
       </c>
       <c r="E14">
-        <v>51.493510155172537</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>2.128828528248034E-3</v>
+        <v>2.1288285282480331E-3</v>
       </c>
       <c r="C15">
         <v>2.5177855391477679E-3</v>
@@ -1018,12 +986,12 @@
         <v>3.215875794823163E-3</v>
       </c>
       <c r="E15">
-        <v>51.06316700245177</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>1.8200422954679921E-3</v>
@@ -1035,12 +1003,12 @@
         <v>2.7448009750641331E-3</v>
       </c>
       <c r="E16">
-        <v>50.809735680255443</v>
+        <v>50.81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0.18193326954936859</v>
@@ -1052,29 +1020,29 @@
         <v>0.26809552467447212</v>
       </c>
       <c r="E17">
-        <v>47.359262733264323</v>
+        <v>47.36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0.29092322490542311</v>
       </c>
       <c r="C18">
-        <v>0.2812469447453968</v>
+        <v>0.28124694474539669</v>
       </c>
       <c r="D18">
         <v>0.42779875016717123</v>
       </c>
       <c r="E18">
-        <v>47.048675919994118</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>1.3074758418372969</v>
@@ -1086,15 +1054,15 @@
         <v>1.86687243924086</v>
       </c>
       <c r="E19">
-        <v>42.784469089500412</v>
+        <v>42.78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>8.736591385585192E-2</v>
+        <v>8.7365913855851934E-2</v>
       </c>
       <c r="C20">
         <v>8.6283161050962898E-2</v>
@@ -1103,12 +1071,12 @@
         <v>0.1237638448164764</v>
       </c>
       <c r="E20">
-        <v>41.661477977187637</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0.92243671564491991</v>
@@ -1120,12 +1088,12 @@
         <v>1.294309035756404</v>
       </c>
       <c r="E21">
-        <v>40.314128200273387</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>1.8379741647195209E-2</v>
@@ -1134,1693 +1102,1523 @@
         <v>1.8404820902885921E-2</v>
       </c>
       <c r="D22">
-        <v>2.5686210501999981E-2</v>
+        <v>2.568621050199997E-2</v>
       </c>
       <c r="E22">
-        <v>39.752837635341592</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>7.7611819678267066E-2</v>
+        <v>7.7611819678267052E-2</v>
       </c>
       <c r="C23">
-        <v>8.7217040665570095E-2</v>
+        <v>8.7217040665570067E-2</v>
       </c>
       <c r="D23">
         <v>0.10806177432493221</v>
       </c>
       <c r="E23">
-        <v>39.233656384933091</v>
+        <v>39.229999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>7.9078505006136592E-3</v>
       </c>
       <c r="C24">
-        <v>8.7847152145913762E-3</v>
+        <v>8.7847152145913744E-3</v>
       </c>
       <c r="D24">
         <v>1.0991693110114159E-2</v>
       </c>
       <c r="E24">
-        <v>38.997229515924637</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0.48981311865599791</v>
       </c>
       <c r="C25">
-        <v>0.50604192709455853</v>
+        <v>0.50604192709455864</v>
       </c>
       <c r="D25">
-        <v>0.67509240009240001</v>
+        <v>0.67509240009240012</v>
       </c>
       <c r="E25">
-        <v>37.82652492950605</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>3.9217649192610491</v>
+        <v>3.92176491926105</v>
       </c>
       <c r="C26">
-        <v>4.4164148876068383</v>
+        <v>4.4164148876068374</v>
       </c>
       <c r="D26">
-        <v>5.3973699407909947</v>
+        <v>5.397369940790993</v>
       </c>
       <c r="E26">
-        <v>37.626044699486577</v>
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>3.92176491926105</v>
+        <v>6.2558144520644534</v>
       </c>
       <c r="C27">
-        <v>4.4164148876068392</v>
+        <v>6.8358364159060754</v>
       </c>
       <c r="D27">
-        <v>5.3973699407909947</v>
+        <v>8.4792057239425667</v>
       </c>
       <c r="E27">
-        <v>37.626044699486563</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>6.2558144520644534</v>
+        <v>2.92028828606615E-2</v>
       </c>
       <c r="C28">
-        <v>6.8358364159060754</v>
+        <v>3.0242585102492229E-2</v>
       </c>
       <c r="D28">
-        <v>8.4792057239425667</v>
+        <v>3.9529558911137859E-2</v>
       </c>
       <c r="E28">
-        <v>35.541195937235358</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>2.92028828606615E-2</v>
+        <v>6.9053170338851473</v>
       </c>
       <c r="C29">
-        <v>3.0242585102492229E-2</v>
+        <v>7.4978261212239543</v>
       </c>
       <c r="D29">
-        <v>3.9529558911137852E-2</v>
+        <v>9.3222362038151516</v>
       </c>
       <c r="E29">
-        <v>35.361837732764279</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>6.9053170338851464</v>
+        <v>5.1214649439920326</v>
       </c>
       <c r="C30">
-        <v>7.4978261212239534</v>
+        <v>5.6896554473334664</v>
       </c>
       <c r="D30">
-        <v>9.3222362038151516</v>
+        <v>6.8578488407435776</v>
       </c>
       <c r="E30">
-        <v>35.0008429456594</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>5.1214649439920326</v>
+        <v>0.40197695999402661</v>
       </c>
       <c r="C31">
-        <v>5.6896554473334664</v>
+        <v>0.45032314418072927</v>
       </c>
       <c r="D31">
-        <v>6.8578488407435776</v>
+        <v>0.53814311224179634</v>
       </c>
       <c r="E31">
-        <v>33.904047293899552</v>
+        <v>33.869999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>0.40197695999402661</v>
+        <v>4.9262393518817671</v>
       </c>
       <c r="C32">
-        <v>0.45032314418072927</v>
+        <v>5.4654430501024933</v>
       </c>
       <c r="D32">
-        <v>0.53814311224179634</v>
+        <v>6.5729095998832836</v>
       </c>
       <c r="E32">
-        <v>33.874118618587801</v>
+        <v>33.43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>4.9262393518817671</v>
+        <v>0.97924047612128096</v>
       </c>
       <c r="C33">
-        <v>5.4654430501024942</v>
+        <v>0.99810833842567581</v>
       </c>
       <c r="D33">
-        <v>6.5729095998832836</v>
+        <v>1.3015978529136421</v>
       </c>
       <c r="E33">
-        <v>33.426517275749262</v>
+        <v>32.92</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>0.97924047612128118</v>
+        <v>1.940552560324232</v>
       </c>
       <c r="C34">
-        <v>0.99810833842567581</v>
+        <v>2.1034577027069288</v>
       </c>
       <c r="D34">
-        <v>1.3015978529136421</v>
+        <v>2.5789387059123898</v>
       </c>
       <c r="E34">
-        <v>32.919122999204603</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>1.940552560324232</v>
+        <v>1.052657604519059</v>
       </c>
       <c r="C35">
-        <v>2.1034577027069279</v>
+        <v>1.156130940759424</v>
       </c>
       <c r="D35">
-        <v>2.5789387059123898</v>
+        <v>1.3980223644697329</v>
       </c>
       <c r="E35">
-        <v>32.897132427141997</v>
+        <v>32.81</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1.0526576045190601</v>
+        <v>19.580565411354879</v>
       </c>
       <c r="C36">
-        <v>1.156130940759424</v>
+        <v>21.142865227215069</v>
       </c>
       <c r="D36">
-        <v>1.3980223644697329</v>
+        <v>25.858532571032569</v>
       </c>
       <c r="E36">
-        <v>32.808841019912123</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>19.580565411354879</v>
+        <v>1.836180013958651</v>
       </c>
       <c r="C37">
-        <v>21.142865227215069</v>
+        <v>1.9752538172042819</v>
       </c>
       <c r="D37">
-        <v>25.858532571032569</v>
+        <v>2.4192909508698981</v>
       </c>
       <c r="E37">
-        <v>32.0622363439876</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>19.58056541135489</v>
+        <v>0.1786193530736874</v>
       </c>
       <c r="C38">
-        <v>21.142865227215069</v>
+        <v>0.18316822612488251</v>
       </c>
       <c r="D38">
-        <v>25.858532571032569</v>
+        <v>0.23345810385284069</v>
       </c>
       <c r="E38">
-        <v>32.062236343987578</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>1.8361800139586519</v>
+        <v>0.14491991397335829</v>
       </c>
       <c r="C39">
-        <v>1.9752538172042819</v>
+        <v>0.1509292977922235</v>
       </c>
       <c r="D39">
-        <v>2.4192909508698981</v>
+        <v>0.18840404675930991</v>
       </c>
       <c r="E39">
-        <v>31.756741304144121</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0.1786193530736874</v>
+        <v>1.5227685138851941</v>
       </c>
       <c r="C40">
-        <v>0.18316822612488251</v>
+        <v>1.714420560880932</v>
       </c>
       <c r="D40">
-        <v>0.23345810385284069</v>
+        <v>1.97832057057057</v>
       </c>
       <c r="E40">
-        <v>30.701460863834939</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>0.14491991397335821</v>
+        <v>1.5176907192000071</v>
       </c>
       <c r="C41">
-        <v>0.1509292977922235</v>
+        <v>1.555644575861294</v>
       </c>
       <c r="D41">
-        <v>0.18840404675930991</v>
+        <v>1.970379235510815</v>
       </c>
       <c r="E41">
-        <v>30.005629725908982</v>
+        <v>29.83</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>1.522768513885193</v>
+        <v>19.81978909535411</v>
       </c>
       <c r="C42">
-        <v>1.714420560880932</v>
+        <v>22.150934485005688</v>
       </c>
       <c r="D42">
-        <v>1.97832057057057</v>
+        <v>25.679541890068201</v>
       </c>
       <c r="E42">
-        <v>29.916041245368358</v>
+        <v>29.57</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>1.5176907192000071</v>
+        <v>19.101285540503799</v>
       </c>
       <c r="C43">
-        <v>1.555644575861294</v>
+        <v>21.39054774860502</v>
       </c>
       <c r="D43">
-        <v>1.9703792355108141</v>
+        <v>24.685677985677991</v>
       </c>
       <c r="E43">
-        <v>29.827455000148191</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>19.81978909535411</v>
+        <v>1.6364231368836631E-2</v>
       </c>
       <c r="C44">
-        <v>22.150934485005688</v>
+        <v>1.7126266643991101E-2</v>
       </c>
       <c r="D44">
-        <v>25.679541890068201</v>
+        <v>2.043497647445016E-2</v>
       </c>
       <c r="E44">
-        <v>29.565162204917971</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>19.81978909535411</v>
+        <v>4.4754607800273433E-2</v>
       </c>
       <c r="C45">
-        <v>22.150934485005699</v>
+        <v>3.2413757994253348E-2</v>
       </c>
       <c r="D45">
-        <v>25.679541890068201</v>
+        <v>5.5588837825679922E-2</v>
       </c>
       <c r="E45">
-        <v>29.565162204917971</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>19.10128554050381</v>
+        <v>1.254191951246905E-2</v>
       </c>
       <c r="C46">
-        <v>21.39054774860502</v>
+        <v>1.285341990194932E-2</v>
       </c>
       <c r="D46">
-        <v>24.68567798567798</v>
+        <v>1.5483863418073941E-2</v>
       </c>
       <c r="E46">
-        <v>29.235689049999291</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>1.6364231368836631E-2</v>
+        <v>5.3458872982673276</v>
       </c>
       <c r="C47">
-        <v>1.7126266643991112E-2</v>
+        <v>5.9380413537456871</v>
       </c>
       <c r="D47">
-        <v>2.043497647445016E-2</v>
+        <v>6.5996475726738879</v>
       </c>
       <c r="E47">
-        <v>24.875871123196688</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>4.475460780027344E-2</v>
+        <v>0.60702470639003148</v>
       </c>
       <c r="C48">
-        <v>3.2413757994253348E-2</v>
+        <v>0.64296719843159456</v>
       </c>
       <c r="D48">
-        <v>5.5588837825679943E-2</v>
+        <v>0.74832904767115294</v>
       </c>
       <c r="E48">
-        <v>24.208077241468541</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>1.254191951246905E-2</v>
+        <v>2.7827613911205241E-2</v>
       </c>
       <c r="C49">
-        <v>1.285341990194932E-2</v>
+        <v>3.0533308025568091E-2</v>
       </c>
       <c r="D49">
-        <v>1.5483863418073941E-2</v>
+        <v>2.1412201675359569E-2</v>
       </c>
       <c r="E49">
-        <v>23.456887142993111</v>
+        <v>-23.05</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>5.3458872982673293</v>
+        <v>1.334341545490926</v>
       </c>
       <c r="C50">
-        <v>5.938041353745688</v>
+        <v>1.3999441535741839</v>
       </c>
       <c r="D50">
-        <v>6.5996475726738897</v>
+        <v>1.640797528297528</v>
       </c>
       <c r="E50">
-        <v>23.452800338924469</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>0.60702470639003137</v>
+        <v>0.42450887183085317</v>
       </c>
       <c r="C51">
-        <v>0.64296719843159467</v>
+        <v>0.46653732358066718</v>
       </c>
       <c r="D51">
-        <v>0.74832904767115305</v>
+        <v>0.52152040704672287</v>
       </c>
       <c r="E51">
-        <v>23.278186174901659</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>1.334341545490926</v>
+        <v>0.17542655909528981</v>
       </c>
       <c r="C52">
-        <v>1.399944153574185</v>
+        <v>0.17919812539007579</v>
       </c>
       <c r="D52">
-        <v>1.640797528297528</v>
+        <v>0.2153820318294003</v>
       </c>
       <c r="E52">
-        <v>22.966832130963262</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>0.42450887183085328</v>
+        <v>8.0009555467101895E-2</v>
       </c>
       <c r="C53">
-        <v>0.46653732358066718</v>
+        <v>8.4636018039268818E-2</v>
       </c>
       <c r="D53">
-        <v>0.52152040704672298</v>
+        <v>9.7820638958796849E-2</v>
       </c>
       <c r="E53">
-        <v>22.85265200641653</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>0.17542655909528981</v>
+        <v>1.5100615118339581E-2</v>
       </c>
       <c r="C54">
-        <v>0.17919812539007579</v>
+        <v>1.6333871953454E-2</v>
       </c>
       <c r="D54">
-        <v>0.21538203182940019</v>
+        <v>1.8451644964802859E-2</v>
       </c>
       <c r="E54">
-        <v>22.776182204204961</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>8.0009555467101895E-2</v>
+        <v>0.46269969237848502</v>
       </c>
       <c r="C55">
-        <v>8.4636018039268818E-2</v>
+        <v>0.48173231562550461</v>
       </c>
       <c r="D55">
-        <v>9.7820638958796849E-2</v>
+        <v>0.56307263741474256</v>
       </c>
       <c r="E55">
-        <v>22.261195413113459</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>1.5100615118339581E-2</v>
+        <v>2.8650829571882201E-2</v>
       </c>
       <c r="C56">
-        <v>1.6333871953454E-2</v>
+        <v>3.4506961325846783E-2</v>
       </c>
       <c r="D56">
-        <v>1.8451644964802859E-2</v>
+        <v>3.4826932195353252E-2</v>
       </c>
       <c r="E56">
-        <v>22.19134664516735</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
-        <v>0.46269969237848491</v>
+        <v>3.2360944085247501</v>
       </c>
       <c r="C57">
-        <v>0.48173231562550439</v>
+        <v>3.2752378205474182</v>
       </c>
       <c r="D57">
-        <v>0.56307263741474256</v>
+        <v>3.9328378986273709</v>
       </c>
       <c r="E57">
-        <v>21.69289210465984</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>2.8650829571882211E-2</v>
+        <v>4.2368450761949207E-2</v>
       </c>
       <c r="C58">
-        <v>3.4506961325846783E-2</v>
+        <v>4.2338427001043101E-2</v>
       </c>
       <c r="D58">
-        <v>3.4826932195353252E-2</v>
+        <v>5.1482121797911271E-2</v>
       </c>
       <c r="E58">
-        <v>21.556453044320381</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>3.2360944085247492</v>
+        <v>1.0119405096804479</v>
       </c>
       <c r="C59">
-        <v>3.2752378205474182</v>
+        <v>1.0859123573132861</v>
       </c>
       <c r="D59">
-        <v>3.9328378986273722</v>
+        <v>1.2261445149603041</v>
       </c>
       <c r="E59">
-        <v>21.530382063861062</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>4.2368450761949207E-2</v>
+        <v>5.4004794861489902E-2</v>
       </c>
       <c r="C60">
-        <v>4.2338427001043108E-2</v>
+        <v>5.468543338280181E-2</v>
       </c>
       <c r="D60">
-        <v>5.1482121797911271E-2</v>
+        <v>6.5420013130539467E-2</v>
       </c>
       <c r="E60">
-        <v>21.51051282749988</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>1.0119405096804479</v>
+        <v>0.13894909309491349</v>
       </c>
       <c r="C61">
-        <v>1.0859123573132861</v>
+        <v>0.14919405236425359</v>
       </c>
       <c r="D61">
-        <v>1.2261445149603041</v>
+        <v>0.1682595150818835</v>
       </c>
       <c r="E61">
-        <v>21.167648021868239</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>5.4004794861489923E-2</v>
+        <v>8.6569586478564808</v>
       </c>
       <c r="C62">
-        <v>5.468543338280181E-2</v>
+        <v>8.9940969719065702</v>
       </c>
       <c r="D62">
-        <v>6.5420013130539453E-2</v>
+        <v>10.467905253431571</v>
       </c>
       <c r="E62">
-        <v>21.137416220776309</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>0.13894909309491349</v>
+        <v>0.99195783646248048</v>
       </c>
       <c r="C63">
-        <v>0.14919405236425359</v>
+        <v>1.022583758319052</v>
       </c>
       <c r="D63">
-        <v>0.1682595150818835</v>
+        <v>1.1957011160958531</v>
       </c>
       <c r="E63">
-        <v>21.094360052388819</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>8.6569586478564808</v>
+        <v>4.2185498542077503E-2</v>
       </c>
       <c r="C64">
-        <v>8.994096971906572</v>
+        <v>4.5058461327114573E-2</v>
       </c>
       <c r="D64">
-        <v>10.467905253431571</v>
+        <v>5.0781136399557447E-2</v>
       </c>
       <c r="E64">
-        <v>20.918970267040521</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>0.99195783646248048</v>
+        <v>1.814450591931242E-2</v>
       </c>
       <c r="C65">
-        <v>1.022583758319052</v>
+        <v>1.914827867954803E-2</v>
       </c>
       <c r="D65">
-        <v>1.1957011160958531</v>
+        <v>2.1681671043513141E-2</v>
       </c>
       <c r="E65">
-        <v>20.53951006223831</v>
+        <v>19.489999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>4.2185498542077489E-2</v>
+        <v>4.0921151843094572</v>
       </c>
       <c r="C66">
-        <v>4.505846132711458E-2</v>
+        <v>4.1170326307168406</v>
       </c>
       <c r="D66">
-        <v>5.0781136399557447E-2</v>
+        <v>4.879290069421649</v>
       </c>
       <c r="E66">
-        <v>20.375811960373849</v>
+        <v>19.239999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>1.814450591931242E-2</v>
+        <v>14.0925035651274</v>
       </c>
       <c r="C67">
-        <v>1.914827867954803E-2</v>
+        <v>14.80262829171498</v>
       </c>
       <c r="D67">
-        <v>2.1681671043513151E-2</v>
+        <v>16.793891715602239</v>
       </c>
       <c r="E67">
-        <v>19.494414121444269</v>
+        <v>19.170000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>4.0921151843094563</v>
+        <v>5.4166862212527832E-2</v>
       </c>
       <c r="C68">
-        <v>4.1170326307168406</v>
+        <v>5.3693420814163853E-2</v>
       </c>
       <c r="D68">
-        <v>4.879290069421649</v>
+        <v>4.4035330877436128E-2</v>
       </c>
       <c r="E68">
-        <v>19.23638142275383</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>14.09250356512741</v>
+        <v>6.1722418179422833</v>
       </c>
       <c r="C69">
-        <v>14.80262829171498</v>
+        <v>6.3986374557581991</v>
       </c>
       <c r="D69">
-        <v>16.79389171560225</v>
+        <v>7.3100058054005412</v>
       </c>
       <c r="E69">
-        <v>19.168972624279188</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>14.09250356512741</v>
+        <v>1.55122250143148</v>
       </c>
       <c r="C70">
-        <v>14.80262829171498</v>
+        <v>1.688433857141288</v>
       </c>
       <c r="D70">
-        <v>16.793891715602239</v>
+        <v>1.8322404894773321</v>
       </c>
       <c r="E70">
-        <v>19.168972624279139</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>6.1722418179422824</v>
+        <v>17.16098179030455</v>
       </c>
       <c r="C71">
-        <v>6.3986374557581991</v>
+        <v>18.31326601389295</v>
       </c>
       <c r="D71">
-        <v>7.3100058054005412</v>
+        <v>20.239604077761971</v>
       </c>
       <c r="E71">
-        <v>18.433561435504</v>
+        <v>17.940000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>1.5512225014314791</v>
+        <v>12.81806378699955</v>
       </c>
       <c r="C72">
-        <v>1.688433857141288</v>
+        <v>13.62168169043556</v>
       </c>
       <c r="D72">
-        <v>1.8322404894773321</v>
+        <v>15.10849169007064</v>
       </c>
       <c r="E72">
-        <v>18.115904571170599</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>17.16098179030455</v>
+        <v>10.472598595888069</v>
       </c>
       <c r="C73">
-        <v>18.31326601389295</v>
+        <v>10.718280796779251</v>
       </c>
       <c r="D73">
-        <v>20.239604077761971</v>
+        <v>12.307976346792129</v>
       </c>
       <c r="E73">
-        <v>17.939662922996369</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>12.81806378699955</v>
+        <v>5.2928008683736243</v>
       </c>
       <c r="C74">
-        <v>13.62168169043556</v>
+        <v>5.466963122504918</v>
       </c>
       <c r="D74">
-        <v>15.10849169007064</v>
+        <v>6.2048140752088123</v>
       </c>
       <c r="E74">
-        <v>17.868751015220489</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>10.472598595888069</v>
+        <v>11.23041666955754</v>
       </c>
       <c r="C75">
-        <v>10.718280796779251</v>
+        <v>12.320814620559201</v>
       </c>
       <c r="D75">
-        <v>12.307976346792129</v>
+        <v>13.158326190563031</v>
       </c>
       <c r="E75">
-        <v>17.52552371886669</v>
+        <v>17.170000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76">
-        <v>5.2928008683736243</v>
+        <v>2.4386458377363951</v>
       </c>
       <c r="C76">
-        <v>5.4669631225049171</v>
+        <v>2.548808880550367</v>
       </c>
       <c r="D76">
-        <v>6.2048140752088106</v>
+        <v>2.856558126952863</v>
       </c>
       <c r="E76">
-        <v>17.23120195745113</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>11.23041666955754</v>
+        <v>5.96001271983857E-2</v>
       </c>
       <c r="C77">
-        <v>12.320814620559201</v>
+        <v>6.2633454215342763E-2</v>
       </c>
       <c r="D77">
-        <v>13.158326190563031</v>
+        <v>6.9425465951781729E-2</v>
       </c>
       <c r="E77">
-        <v>17.16685656224589</v>
+        <v>16.489999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>2.438645837736396</v>
+        <v>0.14327479412618729</v>
       </c>
       <c r="C78">
-        <v>2.548808880550367</v>
+        <v>0.1527773678547672</v>
       </c>
       <c r="D78">
-        <v>2.8565581269528639</v>
+        <v>0.16644402499665659</v>
       </c>
       <c r="E78">
-        <v>17.137063642024529</v>
+        <v>16.170000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>5.9600127198385713E-2</v>
+        <v>0.14395258812128009</v>
       </c>
       <c r="C79">
-        <v>6.2633454215342763E-2</v>
+        <v>0.15124513494737959</v>
       </c>
       <c r="D79">
-        <v>6.9425465951781742E-2</v>
+        <v>0.16683014492225021</v>
       </c>
       <c r="E79">
-        <v>16.485432523812051</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80">
-        <v>0.14327479412618729</v>
+        <v>0.10947573398660861</v>
       </c>
       <c r="C80">
-        <v>0.1527773678547672</v>
+        <v>0.1116732865791689</v>
       </c>
       <c r="D80">
-        <v>0.16644402499665659</v>
+        <v>0.12661251382961911</v>
       </c>
       <c r="E80">
-        <v>16.171184200106602</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>0.14395258812128009</v>
+        <v>0.20429694895584991</v>
       </c>
       <c r="C81">
-        <v>0.15124513494737951</v>
+        <v>0.21747618401945029</v>
       </c>
       <c r="D81">
-        <v>0.16683014492225021</v>
+        <v>0.23536367490972759</v>
       </c>
       <c r="E81">
-        <v>15.8924247903732</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82">
-        <v>0.10947573398660861</v>
+        <v>0.1293085487629218</v>
       </c>
       <c r="C82">
-        <v>0.1116732865791689</v>
+        <v>0.13322236816145491</v>
       </c>
       <c r="D82">
-        <v>0.12661251382961911</v>
+        <v>0.14889707875892089</v>
       </c>
       <c r="E82">
-        <v>15.653496184923229</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>0.20429694895584991</v>
+        <v>0.15077983216915111</v>
       </c>
       <c r="C83">
-        <v>0.21747618401945029</v>
+        <v>0.12964961513723119</v>
       </c>
       <c r="D83">
-        <v>0.23536367490972759</v>
+        <v>0.17313543300385409</v>
       </c>
       <c r="E83">
-        <v>15.206651941038761</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1293085487629218</v>
+        <v>34.39452813501962</v>
       </c>
       <c r="C84">
-        <v>0.13322236816145491</v>
+        <v>35.433473314193137</v>
       </c>
       <c r="D84">
-        <v>0.14889707875892089</v>
+        <v>39.338820652636443</v>
       </c>
       <c r="E84">
-        <v>15.14867360541899</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>0.150779832169151</v>
+        <v>9.4944853413467953</v>
       </c>
       <c r="C85">
-        <v>0.12964961513723119</v>
+        <v>9.4592506051948781</v>
       </c>
       <c r="D85">
-        <v>0.17313543300385409</v>
+        <v>10.84709608393819</v>
       </c>
       <c r="E85">
-        <v>14.82665188910916</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
-        <v>34.394528135019627</v>
+        <v>28.35515475248447</v>
       </c>
       <c r="C86">
-        <v>35.433473314193137</v>
+        <v>30.06428089603012</v>
       </c>
       <c r="D86">
-        <v>39.338820652636443</v>
+        <v>32.359102928839768</v>
       </c>
       <c r="E86">
-        <v>14.37522997323129</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>34.394528135019627</v>
+        <v>52.060889205649268</v>
       </c>
       <c r="C87">
-        <v>35.433473314193137</v>
+        <v>54.985647759858303</v>
       </c>
       <c r="D87">
-        <v>39.338820652636443</v>
+        <v>59.261245000060782</v>
       </c>
       <c r="E87">
-        <v>14.37522997323129</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
-        <v>9.4944853413467971</v>
+        <v>0.50983577661983237</v>
       </c>
       <c r="C88">
-        <v>9.4592506051948781</v>
+        <v>0.46749278921879561</v>
       </c>
       <c r="D88">
-        <v>10.84709608393819</v>
+        <v>0.57857244896718574</v>
       </c>
       <c r="E88">
-        <v>14.246277643939409</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
-        <v>9.4944853413467971</v>
+        <v>1.833172691357676</v>
       </c>
       <c r="C89">
-        <v>9.4592506051948781</v>
+        <v>1.912952621412374</v>
       </c>
       <c r="D89">
-        <v>10.84709608393819</v>
+        <v>2.0785783759467971</v>
       </c>
       <c r="E89">
-        <v>14.246277643939409</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
-        <v>28.35515475248447</v>
+        <v>0.3017127136238979</v>
       </c>
       <c r="C90">
-        <v>30.06428089603012</v>
+        <v>0.31854022940656068</v>
       </c>
       <c r="D90">
-        <v>32.359102928839768</v>
+        <v>0.34174215663031438</v>
       </c>
       <c r="E90">
-        <v>14.12070648637345</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91">
-        <v>28.35515475248447</v>
+        <v>4.0327386159429497E-2</v>
       </c>
       <c r="C91">
-        <v>30.06428089603012</v>
+        <v>5.0122473706065027E-2</v>
       </c>
       <c r="D91">
-        <v>32.359102928839768</v>
+        <v>4.557254623044097E-2</v>
       </c>
       <c r="E91">
-        <v>14.120706486373409</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92">
-        <v>52.060889205649268</v>
+        <v>0.19419090458951141</v>
       </c>
       <c r="C92">
-        <v>54.985647759858281</v>
+        <v>0.18808582103473739</v>
       </c>
       <c r="D92">
-        <v>59.261245000060782</v>
+        <v>0.2186666423508529</v>
       </c>
       <c r="E92">
-        <v>13.830643126299471</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93">
-        <v>52.060889205649268</v>
+        <v>0.43948791183168118</v>
       </c>
       <c r="C93">
-        <v>54.985647759858267</v>
+        <v>0.45291678347661318</v>
       </c>
       <c r="D93">
-        <v>59.261245000060782</v>
+        <v>0.4928556430924852</v>
       </c>
       <c r="E93">
-        <v>13.830643126299471</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94">
-        <v>0.50983577661983237</v>
+        <v>9.7064538070730011E-2</v>
       </c>
       <c r="C94">
-        <v>0.46749278921879528</v>
+        <v>7.9955151766297278E-2</v>
       </c>
       <c r="D94">
-        <v>0.57857244896718585</v>
+        <v>0.1087394074236179</v>
       </c>
       <c r="E94">
-        <v>13.48212022370649</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
-        <v>1.833172691357676</v>
+        <v>2.719342941792632</v>
       </c>
       <c r="C95">
-        <v>1.912952621412374</v>
+        <v>2.8770069021617011</v>
       </c>
       <c r="D95">
-        <v>2.0785783759467971</v>
+        <v>3.0427844342318031</v>
       </c>
       <c r="E95">
-        <v>13.38693761619202</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
-        <v>0.30171271362389779</v>
+        <v>6.5664624755723837</v>
       </c>
       <c r="C96">
-        <v>0.31854022940656068</v>
+        <v>6.7493586042115457</v>
       </c>
       <c r="D96">
-        <v>0.34174215663031449</v>
+        <v>7.3226269285479813</v>
       </c>
       <c r="E96">
-        <v>13.267403459940249</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
-        <v>4.0327386159429497E-2</v>
+        <v>1.506289005263463</v>
       </c>
       <c r="C97">
-        <v>5.0122473706065027E-2</v>
+        <v>1.555447357312683</v>
       </c>
       <c r="D97">
-        <v>4.5572546230440963E-2</v>
+        <v>1.6745864791917431</v>
       </c>
       <c r="E97">
-        <v>13.00644690998652</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98">
-        <v>0.19419090458951141</v>
+        <v>0.90573567062162252</v>
       </c>
       <c r="C98">
-        <v>0.18808582103473739</v>
+        <v>0.92133994322113533</v>
       </c>
       <c r="D98">
-        <v>0.21866664235085281</v>
+        <v>1.0041695055379261</v>
       </c>
       <c r="E98">
-        <v>12.603956819233741</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99">
-        <v>0.43948791183168118</v>
+        <v>0.72319924166286387</v>
       </c>
       <c r="C99">
-        <v>0.45291678347661318</v>
+        <v>0.7571490452748193</v>
       </c>
       <c r="D99">
-        <v>0.4928556430924852</v>
+        <v>0.80159822524954083</v>
       </c>
       <c r="E99">
-        <v>12.143162490722441</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100">
-        <v>9.7064538070730025E-2</v>
+        <v>5.2640920849783077</v>
       </c>
       <c r="C100">
-        <v>7.9955151766297278E-2</v>
+        <v>5.4503405270897538</v>
       </c>
       <c r="D100">
-        <v>0.108739407423618</v>
+        <v>5.8064570643518021</v>
       </c>
       <c r="E100">
-        <v>12.027945102237609</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
-        <v>2.719342941792632</v>
+        <v>15.398995922656921</v>
       </c>
       <c r="C101">
-        <v>2.8770069021617011</v>
+        <v>15.69901077397207</v>
       </c>
       <c r="D101">
-        <v>3.0427844342318031</v>
+        <v>16.89099190283401</v>
       </c>
       <c r="E101">
-        <v>11.89410454519407</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102">
-        <v>6.5664624755723819</v>
+        <v>1.363423864356527E-2</v>
       </c>
       <c r="C102">
-        <v>6.7493586042115457</v>
+        <v>1.411998327284705E-2</v>
       </c>
       <c r="D102">
-        <v>7.3226269285479813</v>
+        <v>1.483311905022431E-2</v>
       </c>
       <c r="E102">
-        <v>11.515552792520699</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103">
-        <v>1.506289005263463</v>
+        <v>10.812178124198249</v>
       </c>
       <c r="C103">
-        <v>1.5554473573126819</v>
+        <v>11.185223887994781</v>
       </c>
       <c r="D103">
-        <v>1.674586479191742</v>
+        <v>11.65841023209444</v>
       </c>
       <c r="E103">
-        <v>11.172986946076961</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104">
-        <v>0.90573567062162275</v>
+        <v>0.110353712695044</v>
       </c>
       <c r="C104">
-        <v>0.92133994322113533</v>
+        <v>0.1241383677916186</v>
       </c>
       <c r="D104">
-        <v>1.0041695055379269</v>
+        <v>0.1173608831503568</v>
       </c>
       <c r="E104">
-        <v>10.867832427174591</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105">
-        <v>0.72319924166286398</v>
+        <v>0.14972285474220459</v>
       </c>
       <c r="C105">
-        <v>0.7571490452748193</v>
+        <v>0.14053509019453289</v>
       </c>
       <c r="D105">
-        <v>0.80159822524954105</v>
+        <v>0.14168779102989629</v>
       </c>
       <c r="E105">
-        <v>10.840578787999419</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106">
-        <v>5.2640920849783068</v>
+        <v>5.5221386800334161E-3</v>
       </c>
       <c r="C106">
-        <v>5.4503405270897529</v>
+        <v>4.3277310924369743E-3</v>
       </c>
       <c r="D106">
-        <v>5.8064570643518021</v>
+        <v>5.2687809266756631E-3</v>
       </c>
       <c r="E106">
-        <v>10.303105846518079</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107">
-        <v>15.398995922656921</v>
+        <v>1.917991212700965E-2</v>
       </c>
       <c r="C107">
-        <v>15.69901077397207</v>
+        <v>1.8861346514984289E-2</v>
       </c>
       <c r="D107">
-        <v>16.89099190283401</v>
+        <v>1.9627323679955261E-2</v>
       </c>
       <c r="E107">
-        <v>9.6889173013019807</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108">
-        <v>1.363423864356527E-2</v>
+        <v>2.4675563328930199</v>
       </c>
       <c r="C108">
-        <v>1.411998327284705E-2</v>
+        <v>2.3615828682005149</v>
       </c>
       <c r="D108">
-        <v>1.483311905022432E-2</v>
+        <v>2.421636970979077</v>
       </c>
       <c r="E108">
-        <v>8.7931599116087344</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109">
-        <v>10.812178124198249</v>
+        <v>7.3395369912049493E-2</v>
       </c>
       <c r="C109">
-        <v>11.185223887994789</v>
+        <v>7.2321719073421858E-2</v>
       </c>
       <c r="D109">
-        <v>11.65841023209444</v>
+        <v>7.4740033555823038E-2</v>
       </c>
       <c r="E109">
-        <v>7.8266571099331026</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1103537126950439</v>
+        <v>9.1082946988326263</v>
       </c>
       <c r="C110">
-        <v>0.12413836779161851</v>
+        <v>9.0684383303733149</v>
       </c>
       <c r="D110">
-        <v>0.1173608831503568</v>
+        <v>9.0852225200909409</v>
       </c>
       <c r="E110">
-        <v>6.3497369360619382</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111">
-        <v>1.917991212700965E-2</v>
+        <v>1.9823386715414579</v>
       </c>
       <c r="C111">
-        <v>1.8861346514984289E-2</v>
+        <v>1.90815713224382</v>
       </c>
       <c r="D111">
-        <v>1.9627323679955261E-2</v>
+        <v>1.9818377588114431</v>
       </c>
       <c r="E111">
-        <v>2.3327090863755888</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112">
-        <v>7.3395369912049493E-2</v>
-      </c>
-      <c r="C112">
-        <v>7.2321719073421858E-2</v>
-      </c>
-      <c r="D112">
-        <v>7.4740033555823038E-2</v>
-      </c>
-      <c r="E112">
-        <v>1.832082385285162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113">
-        <v>1.9823386715414579</v>
-      </c>
-      <c r="C113">
-        <v>1.9081571322438191</v>
-      </c>
-      <c r="D113">
-        <v>1.9818377588114431</v>
-      </c>
-      <c r="E113">
-        <v>-2.5268776582224411E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114">
-        <v>9.1082946988326245</v>
-      </c>
-      <c r="C114">
-        <v>9.0684383303733149</v>
-      </c>
-      <c r="D114">
-        <v>9.0852225200909409</v>
-      </c>
-      <c r="E114">
-        <v>-0.25330953273438472</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115">
-        <v>9.1082946988326245</v>
-      </c>
-      <c r="C115">
-        <v>9.0684383303733149</v>
-      </c>
-      <c r="D115">
-        <v>9.0852225200909409</v>
-      </c>
-      <c r="E115">
-        <v>-0.25330953273438472</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116">
-        <v>2.4675563328930199</v>
-      </c>
-      <c r="C116">
-        <v>2.3615828682005149</v>
-      </c>
-      <c r="D116">
-        <v>2.4216369709790762</v>
-      </c>
-      <c r="E116">
-        <v>-1.8609245633759151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>5.5221386800334161E-3</v>
-      </c>
-      <c r="C117">
-        <v>4.3277310924369743E-3</v>
-      </c>
-      <c r="D117">
-        <v>5.2687809266756631E-3</v>
-      </c>
-      <c r="E117">
-        <v>-4.5880367741184616</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118">
-        <v>0.14972285474220459</v>
-      </c>
-      <c r="C118">
-        <v>0.14053509019453289</v>
-      </c>
-      <c r="D118">
-        <v>0.14168779102989629</v>
-      </c>
-      <c r="E118">
-        <v>-5.3666247054554157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119">
-        <v>5.4166862212527853E-2</v>
-      </c>
-      <c r="C119">
-        <v>5.3693420814163853E-2</v>
-      </c>
-      <c r="D119">
-        <v>4.4035330877436142E-2</v>
-      </c>
-      <c r="E119">
-        <v>-18.704298017743518</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120">
-        <v>2.7827613911205241E-2</v>
-      </c>
-      <c r="C120">
-        <v>3.0533308025568081E-2</v>
-      </c>
-      <c r="D120">
-        <v>2.1412201675359569E-2</v>
-      </c>
-      <c r="E120">
-        <v>-23.054122629114119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121">
-        <v>1.801294740923224E-2</v>
-      </c>
-      <c r="C121">
-        <v>1.6099485658309189E-2</v>
-      </c>
-      <c r="D121">
-        <v>7.8965605281394752E-3</v>
-      </c>
-      <c r="E121">
-        <v>-56.161752162268442</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/Evolutions métriques/evo_running.xlsx
+++ b/Tableau métriques/Evolutions métriques/evo_running.xlsx
@@ -29,32 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -96,15 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -530,7 +506,7 @@
       <c r="E2" t="n">
         <v>0.05440733115433372</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" t="n">
         <v>366.8139155851507</v>
       </c>
     </row>
@@ -550,7 +526,7 @@
       <c r="E3" t="n">
         <v>0.02726179371569421</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>116.9381954112913</v>
       </c>
     </row>
@@ -574,7 +550,7 @@
       <c r="E4" t="n">
         <v>0.0348471708210419</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>124.0122226519538</v>
       </c>
     </row>
@@ -594,7 +570,7 @@
       <c r="E5" t="n">
         <v>0.0193961707634775</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" t="n">
         <v>279.3112891277368</v>
       </c>
     </row>
@@ -618,7 +594,7 @@
       <c r="E6" t="n">
         <v>0.1464955294004714</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" t="n">
         <v>106.8296693132228</v>
       </c>
     </row>
@@ -638,7 +614,7 @@
       <c r="E7" t="n">
         <v>0.1024671751674246</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" t="n">
         <v>17.79384786116855</v>
       </c>
     </row>
@@ -662,7 +638,7 @@
       <c r="E8" t="n">
         <v>0.1511508405643854</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" t="n">
         <v>84.51444264050379</v>
       </c>
     </row>
@@ -682,7 +658,7 @@
       <c r="E9" t="n">
         <v>0.1141946518125437</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>50.4127996607655</v>
       </c>
     </row>
@@ -706,7 +682,7 @@
       <c r="E10" t="n">
         <v>0.009101617281544119</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" t="n">
         <v>73.98651595399734</v>
       </c>
     </row>
@@ -726,7 +702,7 @@
       <c r="E11" t="n">
         <v>0.003291963252580493</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" t="n">
         <v>-34.11898083049557</v>
       </c>
     </row>
@@ -750,7 +726,7 @@
       <c r="E12" t="n">
         <v>0.2098275509249417</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" t="n">
         <v>68.41862310270652</v>
       </c>
     </row>
@@ -770,7 +746,7 @@
       <c r="E13" t="n">
         <v>0.1417395655384401</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" t="n">
         <v>-4.771335483798239</v>
       </c>
     </row>
@@ -794,7 +770,7 @@
       <c r="E14" t="n">
         <v>0.01453440199611724</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" t="n">
         <v>-60.01069678410112</v>
       </c>
     </row>
@@ -814,7 +790,7 @@
       <c r="E15" t="n">
         <v>0.02103707289223229</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" t="n">
         <v>-20.13736233774156</v>
       </c>
     </row>
@@ -838,7 +814,7 @@
       <c r="E16" t="n">
         <v>0.004676976802195061</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" t="n">
         <v>-56.93999292248179</v>
       </c>
     </row>
@@ -858,7 +834,7 @@
       <c r="E17" t="n">
         <v>0.009843305658093429</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" t="n">
         <v>186.6544575149587</v>
       </c>
     </row>
@@ -882,7 +858,7 @@
       <c r="E18" t="n">
         <v>0.3040542382950323</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" t="n">
         <v>51.57344425904027</v>
       </c>
     </row>
@@ -902,7 +878,7 @@
       <c r="E19" t="n">
         <v>0.1919956554921885</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" t="n">
         <v>36.51274345502559</v>
       </c>
     </row>
@@ -926,7 +902,7 @@
       <c r="E20" t="n">
         <v>0.04904470232621534</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" t="n">
         <v>-49.20446394156885</v>
       </c>
     </row>
@@ -946,7 +922,7 @@
       <c r="E21" t="n">
         <v>0.03733501329654541</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" t="n">
         <v>1.63628762707263</v>
       </c>
     </row>
@@ -970,7 +946,7 @@
       <c r="E22" t="n">
         <v>0.02424292941557912</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" t="n">
         <v>48.82611543573999</v>
       </c>
     </row>
@@ -990,7 +966,7 @@
       <c r="E23" t="n">
         <v>0.02280253096359526</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" t="n">
         <v>67.61047499838745</v>
       </c>
     </row>
@@ -1014,7 +990,7 @@
       <c r="E24" t="n">
         <v>0.605694203356489</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" t="n">
         <v>40.8852052357655</v>
       </c>
     </row>
@@ -1034,7 +1010,7 @@
       <c r="E25" t="n">
         <v>0.4567424887647497</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" t="n">
         <v>23.5934755378321</v>
       </c>
     </row>
@@ -1058,7 +1034,7 @@
       <c r="E26" t="n">
         <v>1.394731129110182</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" t="n">
         <v>40.83011494611873</v>
       </c>
     </row>
@@ -1078,7 +1054,7 @@
       <c r="E27" t="n">
         <v>1.114785721532094</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" t="n">
         <v>32.31555366789085</v>
       </c>
     </row>
@@ -1102,7 +1078,7 @@
       <c r="E28" t="n">
         <v>0.009733215359193156</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" t="n">
         <v>-40.24828403462994</v>
       </c>
     </row>
@@ -1122,7 +1098,7 @@
       <c r="E29" t="n">
         <v>0.01965016500516979</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" t="n">
         <v>113.2888054840293</v>
       </c>
     </row>
@@ -1146,7 +1122,7 @@
       <c r="E30" t="n">
         <v>0.2164572552737981</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" t="n">
         <v>39.36479195941532</v>
       </c>
     </row>
@@ -1166,7 +1142,7 @@
       <c r="E31" t="n">
         <v>0.1582249335268179</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" t="n">
         <v>19.25943491785511</v>
       </c>
     </row>
@@ -1190,7 +1166,7 @@
       <c r="E32" t="n">
         <v>2.061489339049875</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" t="n">
         <v>35.50644821177893</v>
       </c>
     </row>
@@ -1210,7 +1186,7 @@
       <c r="E33" t="n">
         <v>1.593461082934175</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" t="n">
         <v>35.81131045281762</v>
       </c>
     </row>
@@ -1234,7 +1210,7 @@
       <c r="E34" t="n">
         <v>7.387257856851453</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" t="n">
         <v>35.13145431508018</v>
       </c>
     </row>
@@ -1254,7 +1230,7 @@
       <c r="E35" t="n">
         <v>5.928904896874651</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" t="n">
         <v>25.58269601066953</v>
       </c>
     </row>
@@ -1278,7 +1254,7 @@
       <c r="E36" t="n">
         <v>7.038861385130202</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" t="n">
         <v>34.07026085021965</v>
       </c>
     </row>
@@ -1298,7 +1274,7 @@
       <c r="E37" t="n">
         <v>5.697988035678715</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" t="n">
         <v>25.36507069706791</v>
       </c>
     </row>
@@ -1322,7 +1298,7 @@
       <c r="E38" t="n">
         <v>2.851306591071585</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" t="n">
         <v>33.584152464334</v>
       </c>
     </row>
@@ -1342,7 +1318,7 @@
       <c r="E39" t="n">
         <v>2.203878251205587</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" t="n">
         <v>25.47986895959756</v>
       </c>
     </row>
@@ -1366,7 +1342,7 @@
       <c r="E40" t="n">
         <v>1.623652169520424</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" t="n">
         <v>33.28201320430285</v>
       </c>
     </row>
@@ -1386,7 +1362,7 @@
       <c r="E41" t="n">
         <v>1.048437185485851</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" t="n">
         <v>23.13662565601165</v>
       </c>
     </row>
@@ -1410,7 +1386,7 @@
       <c r="E42" t="n">
         <v>2.653656116938272</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" t="n">
         <v>32.84156681100771</v>
       </c>
     </row>
@@ -1430,7 +1406,7 @@
       <c r="E43" t="n">
         <v>2.074720327016023</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" t="n">
         <v>24.23465070310376</v>
       </c>
     </row>
@@ -1454,7 +1430,7 @@
       <c r="E44" t="n">
         <v>2.169546525395973</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" t="n">
         <v>32.56465633972655</v>
       </c>
     </row>
@@ -1474,7 +1450,7 @@
       <c r="E45" t="n">
         <v>1.696974342658575</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" t="n">
         <v>20.55533090356327</v>
       </c>
     </row>
@@ -1498,7 +1474,7 @@
       <c r="E46" t="n">
         <v>27.5554638649585</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" t="n">
         <v>31.86417050029541</v>
       </c>
     </row>
@@ -1518,7 +1494,7 @@
       <c r="E47" t="n">
         <v>22.22617327838778</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" t="n">
         <v>20.47127773861241</v>
       </c>
     </row>
@@ -1542,7 +1518,7 @@
       <c r="E48" t="n">
         <v>26.44269533101238</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" t="n">
         <v>31.81403343763563</v>
       </c>
     </row>
@@ -1562,7 +1538,7 @@
       <c r="E49" t="n">
         <v>21.3825429225377</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" t="n">
         <v>20.03099116892286</v>
       </c>
     </row>
@@ -1586,7 +1562,7 @@
       <c r="E50" t="n">
         <v>0.5105855000009616</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" t="n">
         <v>31.33252102064008</v>
       </c>
     </row>
@@ -1606,7 +1582,7 @@
       <c r="E51" t="n">
         <v>0.3517065116365814</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" t="n">
         <v>43.45807282431388</v>
       </c>
     </row>
@@ -1630,7 +1606,7 @@
       <c r="E52" t="n">
         <v>0.01739157218231831</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" t="n">
         <v>29.62835325512388</v>
       </c>
     </row>
@@ -1650,7 +1626,7 @@
       <c r="E53" t="n">
         <v>0.01235640203842896</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="F53" t="n">
         <v>-4.235376873150551</v>
       </c>
     </row>
@@ -1674,7 +1650,7 @@
       <c r="E54" t="n">
         <v>0.03176041871468598</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" t="n">
         <v>29.40349898135225</v>
       </c>
     </row>
@@ -1694,7 +1670,7 @@
       <c r="E55" t="n">
         <v>0.02078774459383161</v>
       </c>
-      <c r="F55" s="3" t="n">
+      <c r="F55" t="n">
         <v>34.35724426387077</v>
       </c>
     </row>
@@ -1718,7 +1694,7 @@
       <c r="E56" t="n">
         <v>0.02340623518804407</v>
       </c>
-      <c r="F56" s="3" t="n">
+      <c r="F56" t="n">
         <v>29.09366068425033</v>
       </c>
     </row>
@@ -1738,7 +1714,7 @@
       <c r="E57" t="n">
         <v>0.01620506835797198</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" t="n">
         <v>-11.79527014463028</v>
       </c>
     </row>
@@ -1762,7 +1738,7 @@
       <c r="E58" t="n">
         <v>0.1167322340185341</v>
       </c>
-      <c r="F58" s="3" t="n">
+      <c r="F58" t="n">
         <v>28.45710323812412</v>
       </c>
     </row>
@@ -1782,7 +1758,7 @@
       <c r="E59" t="n">
         <v>0.09315868240208595</v>
       </c>
-      <c r="F59" s="3" t="n">
+      <c r="F59" t="n">
         <v>31.99270658658239</v>
       </c>
     </row>
@@ -1806,7 +1782,7 @@
       <c r="E60" t="n">
         <v>5.642482099121277</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" t="n">
         <v>26.25849487727136</v>
       </c>
     </row>
@@ -1826,7 +1802,7 @@
       <c r="E61" t="n">
         <v>4.716525603981409</v>
       </c>
-      <c r="F61" s="3" t="n">
+      <c r="F61" t="n">
         <v>33.0510750912699</v>
       </c>
     </row>
@@ -1850,7 +1826,7 @@
       <c r="E62" t="n">
         <v>2.270979906679139</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" t="n">
         <v>24.95508731822806</v>
       </c>
     </row>
@@ -1870,7 +1846,7 @@
       <c r="E63" t="n">
         <v>1.650260829995022</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="F63" t="n">
         <v>22.52525630993444</v>
       </c>
     </row>
@@ -1894,7 +1870,7 @@
       <c r="E64" t="n">
         <v>6.504506167952542</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" t="n">
         <v>24.83565507799142</v>
       </c>
     </row>
@@ -1914,7 +1890,7 @@
       <c r="E65" t="n">
         <v>5.418468800903653</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="F65" t="n">
         <v>54.53456123328233</v>
       </c>
     </row>
@@ -1938,7 +1914,7 @@
       <c r="E66" t="n">
         <v>1.495825945233005</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" t="n">
         <v>24.21805416287435</v>
       </c>
     </row>
@@ -1958,7 +1934,7 @@
       <c r="E67" t="n">
         <v>1.20991207996231</v>
       </c>
-      <c r="F67" s="3" t="n">
+      <c r="F67" t="n">
         <v>28.10651747993567</v>
       </c>
     </row>
@@ -1982,7 +1958,7 @@
       <c r="E68" t="n">
         <v>6.689417110185673</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" t="n">
         <v>24.2061268208723</v>
       </c>
     </row>
@@ -2002,7 +1978,7 @@
       <c r="E69" t="n">
         <v>5.629426371053901</v>
       </c>
-      <c r="F69" s="3" t="n">
+      <c r="F69" t="n">
         <v>54.69567544001028</v>
       </c>
     </row>
@@ -2026,7 +2002,7 @@
       <c r="E70" t="n">
         <v>15.87798191687726</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" t="n">
         <v>23.66150228419767</v>
       </c>
     </row>
@@ -2046,7 +2022,7 @@
       <c r="E71" t="n">
         <v>14.32308824680901</v>
       </c>
-      <c r="F71" s="3" t="n">
+      <c r="F71" t="n">
         <v>58.31861777937836</v>
       </c>
     </row>
@@ -2070,7 +2046,7 @@
       <c r="E72" t="n">
         <v>0.04343736603233875</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" t="n">
         <v>-23.54230714662678</v>
       </c>
     </row>
@@ -2090,7 +2066,7 @@
       <c r="E73" t="n">
         <v>0.05319637824434031</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" t="n">
         <v>39.61597004865004</v>
       </c>
     </row>
@@ -2114,7 +2090,7 @@
       <c r="E74" t="n">
         <v>0.682032673877732</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" t="n">
         <v>22.4064825253544</v>
       </c>
     </row>
@@ -2134,7 +2110,7 @@
       <c r="E75" t="n">
         <v>0.4620334863862079</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="F75" t="n">
         <v>14.73307553457038</v>
       </c>
     </row>
@@ -2158,7 +2134,7 @@
       <c r="E76" t="n">
         <v>0.26101318088745</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" t="n">
         <v>22.22832150696652</v>
       </c>
     </row>
@@ -2178,7 +2154,7 @@
       <c r="E77" t="n">
         <v>0.1966114983804183</v>
       </c>
-      <c r="F77" s="3" t="n">
+      <c r="F77" t="n">
         <v>25.97602863536334</v>
       </c>
     </row>
@@ -2202,7 +2178,7 @@
       <c r="E78" t="n">
         <v>0.2916978700239132</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" t="n">
         <v>21.71986091405234</v>
       </c>
     </row>
@@ -2222,7 +2198,7 @@
       <c r="E79" t="n">
         <v>0.2292863974639935</v>
       </c>
-      <c r="F79" s="3" t="n">
+      <c r="F79" t="n">
         <v>53.95405446807986</v>
       </c>
     </row>
@@ -2246,7 +2222,7 @@
       <c r="E80" t="n">
         <v>0.7921170667522969</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" t="n">
         <v>21.2429604358453</v>
       </c>
     </row>
@@ -2266,7 +2242,7 @@
       <c r="E81" t="n">
         <v>0.5599241692108434</v>
       </c>
-      <c r="F81" s="3" t="n">
+      <c r="F81" t="n">
         <v>35.74917089459327</v>
       </c>
     </row>
@@ -2290,7 +2266,7 @@
       <c r="E82" t="n">
         <v>0.04575711457712998</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" t="n">
         <v>19.31645143003041</v>
       </c>
     </row>
@@ -2310,7 +2286,7 @@
       <c r="E83" t="n">
         <v>0.0330510676894749</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="F83" t="n">
         <v>32.72551000080075</v>
       </c>
     </row>
@@ -2334,7 +2310,7 @@
       <c r="E84" t="n">
         <v>0.05524349712436762</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" t="n">
         <v>16.98351637133027</v>
       </c>
     </row>
@@ -2354,7 +2330,7 @@
       <c r="E85" t="n">
         <v>0.02441658913301864</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="F85" t="n">
         <v>15.78847168508629</v>
       </c>
     </row>
@@ -2378,7 +2354,7 @@
       <c r="E86" t="n">
         <v>7.003623760274256</v>
       </c>
-      <c r="F86" s="3" t="n">
+      <c r="F86" t="n">
         <v>16.85699188952276</v>
       </c>
     </row>
@@ -2398,7 +2374,7 @@
       <c r="E87" t="n">
         <v>5.737254817128554</v>
       </c>
-      <c r="F87" s="3" t="n">
+      <c r="F87" t="n">
         <v>18.59995767380173</v>
       </c>
     </row>
@@ -2422,7 +2398,7 @@
       <c r="E88" t="n">
         <v>1.309627349383883</v>
       </c>
-      <c r="F88" s="3" t="n">
+      <c r="F88" t="n">
         <v>14.94128270704331</v>
       </c>
     </row>
@@ -2442,7 +2418,7 @@
       <c r="E89" t="n">
         <v>1.062334607315012</v>
       </c>
-      <c r="F89" s="3" t="n">
+      <c r="F89" t="n">
         <v>16.0858066692326</v>
       </c>
     </row>
@@ -2466,7 +2442,7 @@
       <c r="E90" t="n">
         <v>0.4630520120463925</v>
       </c>
-      <c r="F90" s="2" t="n">
+      <c r="F90" t="n">
         <v>-14.93358937105261</v>
       </c>
     </row>
@@ -2486,7 +2462,7 @@
       <c r="E91" t="n">
         <v>0.4814732057527685</v>
       </c>
-      <c r="F91" s="3" t="n">
+      <c r="F91" t="n">
         <v>30.9453931281451</v>
       </c>
     </row>
@@ -2510,7 +2486,7 @@
       <c r="E92" t="n">
         <v>1.653803644605902</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" t="n">
         <v>14.62660559792214</v>
       </c>
     </row>
@@ -2530,7 +2506,7 @@
       <c r="E93" t="n">
         <v>1.453403766490051</v>
       </c>
-      <c r="F93" s="3" t="n">
+      <c r="F93" t="n">
         <v>18.63674012669522</v>
       </c>
     </row>
@@ -2554,7 +2530,7 @@
       <c r="E94" t="n">
         <v>0.05854830170879814</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" t="n">
         <v>14.2146918370271</v>
       </c>
     </row>
@@ -2574,7 +2550,7 @@
       <c r="E95" t="n">
         <v>0.04346209041923454</v>
       </c>
-      <c r="F95" s="3" t="n">
+      <c r="F95" t="n">
         <v>17.58541099390626</v>
       </c>
     </row>
@@ -2598,7 +2574,7 @@
       <c r="E96" t="n">
         <v>1.822412592915575</v>
       </c>
-      <c r="F96" s="2" t="n">
+      <c r="F96" t="n">
         <v>13.26244497982316</v>
       </c>
     </row>
@@ -2618,7 +2594,7 @@
       <c r="E97" t="n">
         <v>1.439071002681406</v>
       </c>
-      <c r="F97" s="4" t="n">
+      <c r="F97" t="n">
         <v>3.057103105609547</v>
       </c>
     </row>
@@ -2642,7 +2618,7 @@
       <c r="E98" t="n">
         <v>0.02261005616610954</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" t="n">
         <v>13.23047862324527</v>
       </c>
     </row>
@@ -2662,7 +2638,7 @@
       <c r="E99" t="n">
         <v>0.0150308820787043</v>
       </c>
-      <c r="F99" s="3" t="n">
+      <c r="F99" t="n">
         <v>18.72941701507348</v>
       </c>
     </row>
@@ -2686,7 +2662,7 @@
       <c r="E100" t="n">
         <v>0.02054626960747757</v>
       </c>
-      <c r="F100" s="3" t="n">
+      <c r="F100" t="n">
         <v>13.00754988039932</v>
       </c>
     </row>
@@ -2706,7 +2682,7 @@
       <c r="E101" t="n">
         <v>0.01813421360298432</v>
       </c>
-      <c r="F101" s="3" t="n">
+      <c r="F101" t="n">
         <v>22.70996547935822</v>
       </c>
     </row>
@@ -2730,7 +2706,7 @@
       <c r="E102" t="n">
         <v>0.8420727533218682</v>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="F102" t="n">
         <v>12.81896648374242</v>
       </c>
     </row>
@@ -2750,7 +2726,7 @@
       <c r="E103" t="n">
         <v>0.6361854370562695</v>
       </c>
-      <c r="F103" s="3" t="n">
+      <c r="F103" t="n">
         <v>21.36943947549775</v>
       </c>
     </row>
@@ -2774,7 +2750,7 @@
       <c r="E104" t="n">
         <v>13.68186570728175</v>
       </c>
-      <c r="F104" s="3" t="n">
+      <c r="F104" t="n">
         <v>12.70095239353065</v>
       </c>
     </row>
@@ -2794,7 +2770,7 @@
       <c r="E105" t="n">
         <v>11.5365441783737</v>
       </c>
-      <c r="F105" s="3" t="n">
+      <c r="F105" t="n">
         <v>11.71209789302844</v>
       </c>
     </row>
@@ -2818,7 +2794,7 @@
       <c r="E106" t="n">
         <v>9.286883969775863</v>
       </c>
-      <c r="F106" s="2" t="n">
+      <c r="F106" t="n">
         <v>12.29987822398966</v>
       </c>
     </row>
@@ -2838,7 +2814,7 @@
       <c r="E107" t="n">
         <v>7.286180287030634</v>
       </c>
-      <c r="F107" s="3" t="n">
+      <c r="F107" t="n">
         <v>37.52142443072903</v>
       </c>
     </row>
@@ -2862,7 +2838,7 @@
       <c r="E108" t="n">
         <v>9.944708485540232</v>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="F108" t="n">
         <v>12.28725734676247</v>
       </c>
     </row>
@@ -2882,7 +2858,7 @@
       <c r="E109" t="n">
         <v>8.098571657975889</v>
       </c>
-      <c r="F109" s="3" t="n">
+      <c r="F109" t="n">
         <v>36.48919683385184</v>
       </c>
     </row>
@@ -2906,7 +2882,7 @@
       <c r="E110" t="n">
         <v>7.686742623364319</v>
       </c>
-      <c r="F110" s="3" t="n">
+      <c r="F110" t="n">
         <v>12.25904590772347</v>
       </c>
     </row>
@@ -2926,7 +2902,7 @@
       <c r="E111" t="n">
         <v>6.387659010275792</v>
       </c>
-      <c r="F111" s="3" t="n">
+      <c r="F111" t="n">
         <v>4.024450328970037</v>
       </c>
     </row>
@@ -2950,7 +2926,7 @@
       <c r="E112" t="n">
         <v>0.5067873281605091</v>
       </c>
-      <c r="F112" s="3" t="n">
+      <c r="F112" t="n">
         <v>12.1802574169429</v>
       </c>
     </row>
@@ -2970,7 +2946,7 @@
       <c r="E113" t="n">
         <v>0.4335650517878191</v>
       </c>
-      <c r="F113" s="3" t="n">
+      <c r="F113" t="n">
         <v>4.980329979867108</v>
       </c>
     </row>
@@ -2994,7 +2970,7 @@
       <c r="E114" t="n">
         <v>0.1333215084652762</v>
       </c>
-      <c r="F114" s="2" t="n">
+      <c r="F114" t="n">
         <v>12.11431386230491</v>
       </c>
     </row>
@@ -3014,7 +2990,7 @@
       <c r="E115" t="n">
         <v>0.1103351005323883</v>
       </c>
-      <c r="F115" s="3" t="n">
+      <c r="F115" t="n">
         <v>9.493806269499039</v>
       </c>
     </row>
@@ -3038,7 +3014,7 @@
       <c r="E116" t="n">
         <v>0.01417045326785669</v>
       </c>
-      <c r="F116" s="4" t="n">
+      <c r="F116" t="n">
         <v>-12.06305817649614</v>
       </c>
     </row>
@@ -3058,7 +3034,7 @@
       <c r="E117" t="n">
         <v>0.004813531327742332</v>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" t="n">
         <v>-72.05710703674636</v>
       </c>
     </row>
@@ -3082,7 +3058,7 @@
       <c r="E118" t="n">
         <v>0.02417722260772849</v>
       </c>
-      <c r="F118" s="2" t="n">
+      <c r="F118" t="n">
         <v>11.42933626066623</v>
       </c>
     </row>
@@ -3102,7 +3078,7 @@
       <c r="E119" t="n">
         <v>0.02129354236854769</v>
       </c>
-      <c r="F119" s="4" t="n">
+      <c r="F119" t="n">
         <v>79.10640227130095</v>
       </c>
     </row>
@@ -3126,7 +3102,7 @@
       <c r="E120" t="n">
         <v>0.1022817800059964</v>
       </c>
-      <c r="F120" s="2" t="n">
+      <c r="F120" t="n">
         <v>11.32496902084845</v>
       </c>
     </row>
@@ -3146,7 +3122,7 @@
       <c r="E121" t="n">
         <v>0.08551154051887527</v>
       </c>
-      <c r="F121" s="3" t="n">
+      <c r="F121" t="n">
         <v>19.13150754785678</v>
       </c>
     </row>
@@ -3170,7 +3146,7 @@
       <c r="E122" t="n">
         <v>0.009681080166954164</v>
       </c>
-      <c r="F122" s="4" t="n">
+      <c r="F122" t="n">
         <v>-10.86819581584887</v>
       </c>
     </row>
@@ -3190,7 +3166,7 @@
       <c r="E123" t="n">
         <v>0.01137675400005241</v>
       </c>
-      <c r="F123" s="3" t="n">
+      <c r="F123" t="n">
         <v>231.3111834015554</v>
       </c>
     </row>
@@ -3214,7 +3190,7 @@
       <c r="E124" t="n">
         <v>15.09674225550958</v>
       </c>
-      <c r="F124" s="2" t="n">
+      <c r="F124" t="n">
         <v>10.83949819222971</v>
       </c>
     </row>
@@ -3234,7 +3210,7 @@
       <c r="E125" t="n">
         <v>13.45167137391572</v>
       </c>
-      <c r="F125" s="3" t="n">
+      <c r="F125" t="n">
         <v>13.45623404215159</v>
       </c>
     </row>
@@ -3258,7 +3234,7 @@
       <c r="E126" t="n">
         <v>33.65880454098091</v>
       </c>
-      <c r="F126" s="3" t="n">
+      <c r="F126" t="n">
         <v>10.83150263259111</v>
       </c>
     </row>
@@ -3278,7 +3254,7 @@
       <c r="E127" t="n">
         <v>28.36428410744701</v>
       </c>
-      <c r="F127" s="3" t="n">
+      <c r="F127" t="n">
         <v>8.280043278718656</v>
       </c>
     </row>
@@ -3302,7 +3278,7 @@
       <c r="E128" t="n">
         <v>10.50745008228815</v>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="F128" t="n">
         <v>10.52528244916553</v>
       </c>
     </row>
@@ -3322,7 +3298,7 @@
       <c r="E129" t="n">
         <v>9.30520498910613</v>
       </c>
-      <c r="F129" s="3" t="n">
+      <c r="F129" t="n">
         <v>17.34531154469004</v>
       </c>
     </row>
@@ -3346,7 +3322,7 @@
       <c r="E130" t="n">
         <v>19.58451652731102</v>
       </c>
-      <c r="F130" s="2" t="n">
+      <c r="F130" t="n">
         <v>9.772375024274366</v>
       </c>
     </row>
@@ -3366,7 +3342,7 @@
       <c r="E131" t="n">
         <v>18.23371309111844</v>
       </c>
-      <c r="F131" s="3" t="n">
+      <c r="F131" t="n">
         <v>13.82348912536632</v>
       </c>
     </row>
@@ -3390,7 +3366,7 @@
       <c r="E132" t="n">
         <v>12.32717408009813</v>
       </c>
-      <c r="F132" s="2" t="n">
+      <c r="F132" t="n">
         <v>9.632685376536902</v>
       </c>
     </row>
@@ -3410,7 +3386,7 @@
       <c r="E133" t="n">
         <v>10.94861167058617</v>
       </c>
-      <c r="F133" s="3" t="n">
+      <c r="F133" t="n">
         <v>12.88488367259035</v>
       </c>
     </row>
@@ -3434,7 +3410,7 @@
       <c r="E134" t="n">
         <v>0.07191221658528421</v>
       </c>
-      <c r="F134" s="2" t="n">
+      <c r="F134" t="n">
         <v>9.627434158123002</v>
       </c>
     </row>
@@ -3454,7 +3430,7 @@
       <c r="E135" t="n">
         <v>0.05609359980308352</v>
       </c>
-      <c r="F135" s="3" t="n">
+      <c r="F135" t="n">
         <v>19.26120667788484</v>
       </c>
     </row>
@@ -3478,7 +3454,7 @@
       <c r="E136" t="n">
         <v>0.1988842782999681</v>
       </c>
-      <c r="F136" s="2" t="n">
+      <c r="F136" t="n">
         <v>9.623396107254269</v>
       </c>
     </row>
@@ -3498,7 +3474,7 @@
       <c r="E137" t="n">
         <v>0.1358234736615443</v>
       </c>
-      <c r="F137" s="4" t="n">
+      <c r="F137" t="n">
         <v>8.840006652814948</v>
       </c>
     </row>
@@ -3522,7 +3498,7 @@
       <c r="E138" t="n">
         <v>2.695509656557833</v>
       </c>
-      <c r="F138" s="2" t="n">
+      <c r="F138" t="n">
         <v>9.467677906948934</v>
       </c>
     </row>
@@ -3542,7 +3518,7 @@
       <c r="E139" t="n">
         <v>2.062429863011262</v>
       </c>
-      <c r="F139" s="5" t="n">
+      <c r="F139" t="n">
         <v>-12.00868466377446</v>
       </c>
     </row>
@@ -3566,7 +3542,7 @@
       <c r="E140" t="n">
         <v>2.229254552543004</v>
       </c>
-      <c r="F140" s="2" t="n">
+      <c r="F140" t="n">
         <v>9.159683846176032</v>
       </c>
     </row>
@@ -3586,7 +3562,7 @@
       <c r="E141" t="n">
         <v>1.680485738257325</v>
       </c>
-      <c r="F141" s="5" t="n">
+      <c r="F141" t="n">
         <v>-9.854922850649032</v>
       </c>
     </row>
@@ -3610,7 +3586,7 @@
       <c r="E142" t="n">
         <v>25.73999103280693</v>
       </c>
-      <c r="F142" s="2" t="n">
+      <c r="F142" t="n">
         <v>8.711195904473206</v>
       </c>
     </row>
@@ -3630,7 +3606,7 @@
       <c r="E143" t="n">
         <v>23.06855914033982</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="F143" t="n">
         <v>32.9672362367927</v>
       </c>
     </row>
@@ -3654,7 +3630,7 @@
       <c r="E144" t="n">
         <v>1.052880771338935</v>
       </c>
-      <c r="F144" s="2" t="n">
+      <c r="F144" t="n">
         <v>8.691129888129808</v>
       </c>
     </row>
@@ -3674,7 +3650,7 @@
       <c r="E145" t="n">
         <v>0.8769136279532853</v>
       </c>
-      <c r="F145" s="3" t="n">
+      <c r="F145" t="n">
         <v>4.546445434290088</v>
       </c>
     </row>
@@ -3698,7 +3674,7 @@
       <c r="E146" t="n">
         <v>0.1764512484169896</v>
       </c>
-      <c r="F146" s="2" t="n">
+      <c r="F146" t="n">
         <v>8.137156222587137</v>
       </c>
     </row>
@@ -3718,7 +3694,7 @@
       <c r="E147" t="n">
         <v>0.1468635504518063</v>
       </c>
-      <c r="F147" s="3" t="n">
+      <c r="F147" t="n">
         <v>18.91066556777567</v>
       </c>
     </row>
@@ -3742,7 +3718,7 @@
       <c r="E148" t="n">
         <v>37.39164324804448</v>
       </c>
-      <c r="F148" s="3" t="n">
+      <c r="F148" t="n">
         <v>7.936875929260048</v>
       </c>
     </row>
@@ -3762,7 +3738,7 @@
       <c r="E149" t="n">
         <v>35.64298481480117</v>
       </c>
-      <c r="F149" s="3" t="n">
+      <c r="F149" t="n">
         <v>9.40435951507725</v>
       </c>
     </row>
@@ -3786,7 +3762,7 @@
       <c r="E150" t="n">
         <v>0.01048923051055166</v>
       </c>
-      <c r="F150" s="3" t="n">
+      <c r="F150" t="n">
         <v>7.716987746902772</v>
       </c>
     </row>
@@ -3806,7 +3782,7 @@
       <c r="E151" t="n">
         <v>0.009906694042188526</v>
       </c>
-      <c r="F151" s="3" t="n">
+      <c r="F151" t="n">
         <v>42.4385492854277</v>
       </c>
     </row>
@@ -3830,7 +3806,7 @@
       <c r="E152" t="n">
         <v>2.985150267894659</v>
       </c>
-      <c r="F152" s="2" t="n">
+      <c r="F152" t="n">
         <v>7.642935337438459</v>
       </c>
     </row>
@@ -3850,7 +3826,7 @@
       <c r="E153" t="n">
         <v>2.498952379921701</v>
       </c>
-      <c r="F153" s="3" t="n">
+      <c r="F153" t="n">
         <v>13.57617235901204</v>
       </c>
     </row>
@@ -3874,7 +3850,7 @@
       <c r="E154" t="n">
         <v>0.0250816066086798</v>
       </c>
-      <c r="F154" s="2" t="n">
+      <c r="F154" t="n">
         <v>7.158329352031859</v>
       </c>
     </row>
@@ -3894,7 +3870,7 @@
       <c r="E155" t="n">
         <v>0.01815964692794202</v>
       </c>
-      <c r="F155" s="3" t="n">
+      <c r="F155" t="n">
         <v>17.89839767020125</v>
       </c>
     </row>
@@ -3918,7 +3894,7 @@
       <c r="E156" t="n">
         <v>17.69316974899422</v>
       </c>
-      <c r="F156" s="2" t="n">
+      <c r="F156" t="n">
         <v>7.064361813838063</v>
       </c>
     </row>
@@ -3938,7 +3914,7 @@
       <c r="E157" t="n">
         <v>14.76518501050358</v>
       </c>
-      <c r="F157" s="4" t="n">
+      <c r="F157" t="n">
         <v>3.674709853048863</v>
       </c>
     </row>
@@ -3962,7 +3938,7 @@
       <c r="E158" t="n">
         <v>0.05087437028309551</v>
       </c>
-      <c r="F158" s="3" t="n">
+      <c r="F158" t="n">
         <v>6.884676315052733</v>
       </c>
     </row>
@@ -3982,7 +3958,7 @@
       <c r="E159" t="n">
         <v>0.04510244636993071</v>
       </c>
-      <c r="F159" s="3" t="n">
+      <c r="F159" t="n">
         <v>18.8379382556907</v>
       </c>
     </row>
@@ -4006,7 +3982,7 @@
       <c r="E160" t="n">
         <v>0.1355274897592527</v>
       </c>
-      <c r="F160" s="2" t="n">
+      <c r="F160" t="n">
         <v>6.809060808547891</v>
       </c>
     </row>
@@ -4026,7 +4002,7 @@
       <c r="E161" t="n">
         <v>0.08720650056863707</v>
       </c>
-      <c r="F161" s="4" t="n">
+      <c r="F161" t="n">
         <v>6.821800639308592</v>
       </c>
     </row>
@@ -4050,7 +4026,7 @@
       <c r="E162" t="n">
         <v>0.01580720477332567</v>
       </c>
-      <c r="F162" s="2" t="n">
+      <c r="F162" t="n">
         <v>6.694088686780971</v>
       </c>
     </row>
@@ -4070,7 +4046,7 @@
       <c r="E163" t="n">
         <v>0.01366376541129052</v>
       </c>
-      <c r="F163" s="3" t="n">
+      <c r="F163" t="n">
         <v>23.81600110718248</v>
       </c>
     </row>
@@ -4094,7 +4070,7 @@
       <c r="E164" t="n">
         <v>0.2248306237521426</v>
       </c>
-      <c r="F164" s="5" t="n">
+      <c r="F164" t="n">
         <v>-6.22520458049686</v>
       </c>
     </row>
@@ -4114,7 +4090,7 @@
       <c r="E165" t="n">
         <v>0.1917263023899059</v>
       </c>
-      <c r="F165" s="2" t="n">
+      <c r="F165" t="n">
         <v>15.26458661953301</v>
       </c>
     </row>
@@ -4138,7 +4114,7 @@
       <c r="E166" t="n">
         <v>56.18004102023242</v>
       </c>
-      <c r="F166" s="2" t="n">
+      <c r="F166" t="n">
         <v>6.176480322271328</v>
       </c>
     </row>
@@ -4158,7 +4134,7 @@
       <c r="E167" t="n">
         <v>53.77651413698236</v>
       </c>
-      <c r="F167" s="3" t="n">
+      <c r="F167" t="n">
         <v>9.594212240618615</v>
       </c>
     </row>
@@ -4182,7 +4158,7 @@
       <c r="E168" t="n">
         <v>10.53300711965388</v>
       </c>
-      <c r="F168" s="2" t="n">
+      <c r="F168" t="n">
         <v>-5.911995706746972</v>
       </c>
     </row>
@@ -4202,7 +4178,7 @@
       <c r="E169" t="n">
         <v>9.759464979331954</v>
       </c>
-      <c r="F169" s="3" t="n">
+      <c r="F169" t="n">
         <v>16.32800018837044</v>
       </c>
     </row>
@@ -4226,7 +4202,7 @@
       <c r="E170" t="n">
         <v>1.221035860606317</v>
       </c>
-      <c r="F170" s="2" t="n">
+      <c r="F170" t="n">
         <v>5.731820377165846</v>
       </c>
     </row>
@@ -4246,7 +4222,7 @@
       <c r="E171" t="n">
         <v>1.053551185207452</v>
       </c>
-      <c r="F171" s="3" t="n">
+      <c r="F171" t="n">
         <v>18.72094126876861</v>
       </c>
     </row>
@@ -4270,7 +4246,7 @@
       <c r="E172" t="n">
         <v>7.274454615942773</v>
       </c>
-      <c r="F172" s="2" t="n">
+      <c r="F172" t="n">
         <v>5.238433157144606</v>
       </c>
     </row>
@@ -4290,7 +4266,7 @@
       <c r="E173" t="n">
         <v>6.508822787582656</v>
       </c>
-      <c r="F173" s="3" t="n">
+      <c r="F173" t="n">
         <v>16.27943558085969</v>
       </c>
     </row>
@@ -4314,7 +4290,7 @@
       <c r="E174" t="n">
         <v>11.25764475765167</v>
       </c>
-      <c r="F174" s="2" t="n">
+      <c r="F174" t="n">
         <v>-5.150550116421389</v>
       </c>
     </row>
@@ -4334,7 +4310,7 @@
       <c r="E175" t="n">
         <v>10.50069104219229</v>
       </c>
-      <c r="F175" s="4" t="n">
+      <c r="F175" t="n">
         <v>5.787798749532678</v>
       </c>
     </row>
@@ -4358,7 +4334,7 @@
       <c r="E176" t="n">
         <v>0.003347351535970121</v>
       </c>
-      <c r="F176" s="2" t="n">
+      <c r="F176" t="n">
         <v>4.831225745486556</v>
       </c>
     </row>
@@ -4378,7 +4354,7 @@
       <c r="E177" t="n">
         <v>0.002797122123427993</v>
       </c>
-      <c r="F177" s="3" t="n">
+      <c r="F177" t="n">
         <v>69.60378716026283</v>
       </c>
     </row>
@@ -4402,7 +4378,7 @@
       <c r="E178" t="n">
         <v>0.168807108558092</v>
       </c>
-      <c r="F178" s="2" t="n">
+      <c r="F178" t="n">
         <v>4.789131733680076</v>
       </c>
     </row>
@@ -4422,7 +4398,7 @@
       <c r="E179" t="n">
         <v>0.147706955109867</v>
       </c>
-      <c r="F179" s="3" t="n">
+      <c r="F179" t="n">
         <v>13.10655026554888</v>
       </c>
     </row>
@@ -4446,7 +4422,7 @@
       <c r="E180" t="n">
         <v>0.06077141310004479</v>
       </c>
-      <c r="F180" s="2" t="n">
+      <c r="F180" t="n">
         <v>-4.734444658966144</v>
       </c>
     </row>
@@ -4466,7 +4442,7 @@
       <c r="E181" t="n">
         <v>0.03591848495263986</v>
       </c>
-      <c r="F181" s="4" t="n">
+      <c r="F181" t="n">
         <v>15.86668754712091</v>
       </c>
     </row>
@@ -4490,7 +4466,7 @@
       <c r="E182" t="n">
         <v>2.852516274302687</v>
       </c>
-      <c r="F182" s="2" t="n">
+      <c r="F182" t="n">
         <v>-4.47770339833259</v>
       </c>
     </row>
@@ -4510,7 +4486,7 @@
       <c r="E183" t="n">
         <v>2.766946615188489</v>
       </c>
-      <c r="F183" s="3" t="n">
+      <c r="F183" t="n">
         <v>11.15244100249286</v>
       </c>
     </row>
@@ -4534,7 +4510,7 @@
       <c r="E184" t="n">
         <v>1.942751348406099</v>
       </c>
-      <c r="F184" s="3" t="n">
+      <c r="F184" t="n">
         <v>3.941684168668173</v>
       </c>
     </row>
@@ -4554,7 +4530,7 @@
       <c r="E185" t="n">
         <v>1.596102137278435</v>
       </c>
-      <c r="F185" s="3" t="n">
+      <c r="F185" t="n">
         <v>17.64636598398466</v>
       </c>
     </row>
@@ -4578,7 +4554,7 @@
       <c r="E186" t="n">
         <v>0.6386109250985378</v>
       </c>
-      <c r="F186" s="2" t="n">
+      <c r="F186" t="n">
         <v>3.306480181167843</v>
       </c>
     </row>
@@ -4598,7 +4574,7 @@
       <c r="E187" t="n">
         <v>0.4942073101038887</v>
       </c>
-      <c r="F187" s="3" t="n">
+      <c r="F187" t="n">
         <v>10.68595000584921</v>
       </c>
     </row>
@@ -4622,7 +4598,7 @@
       <c r="E188" t="n">
         <v>0.08295721025358063</v>
       </c>
-      <c r="F188" s="2" t="n">
+      <c r="F188" t="n">
         <v>2.912249053252918</v>
       </c>
     </row>
@@ -4642,7 +4618,7 @@
       <c r="E189" t="n">
         <v>0.06367787299156641</v>
       </c>
-      <c r="F189" s="4" t="n">
+      <c r="F189" t="n">
         <v>-4.879530091275535</v>
       </c>
     </row>
@@ -4666,7 +4642,7 @@
       <c r="E190" t="n">
         <v>0.2306360954452236</v>
       </c>
-      <c r="F190" s="2" t="n">
+      <c r="F190" t="n">
         <v>2.847798243366818</v>
       </c>
     </row>
@@ -4686,7 +4662,7 @@
       <c r="E191" t="n">
         <v>0.2108708407320948</v>
       </c>
-      <c r="F191" s="3" t="n">
+      <c r="F191" t="n">
         <v>12.82317840516051</v>
       </c>
     </row>
@@ -4710,7 +4686,7 @@
       <c r="E192" t="n">
         <v>4.076059619421185</v>
       </c>
-      <c r="F192" s="2" t="n">
+      <c r="F192" t="n">
         <v>2.700954682940585</v>
       </c>
     </row>
@@ -4730,7 +4706,7 @@
       <c r="E193" t="n">
         <v>3.454196137576851</v>
       </c>
-      <c r="F193" s="3" t="n">
+      <c r="F193" t="n">
         <v>22.73106488448409</v>
       </c>
     </row>
@@ -4754,7 +4730,7 @@
       <c r="E194" t="n">
         <v>0.07072371963045007</v>
       </c>
-      <c r="F194" s="2" t="n">
+      <c r="F194" t="n">
         <v>-2.568598257767515</v>
       </c>
     </row>
@@ -4774,7 +4750,7 @@
       <c r="E195" t="n">
         <v>0.06131152853847541</v>
       </c>
-      <c r="F195" s="3" t="n">
+      <c r="F195" t="n">
         <v>17.09099609599344</v>
       </c>
     </row>
@@ -4798,7 +4774,7 @@
       <c r="E196" t="n">
         <v>4.958674728557407</v>
       </c>
-      <c r="F196" s="2" t="n">
+      <c r="F196" t="n">
         <v>-2.431457048061025</v>
       </c>
     </row>
@@ -4818,7 +4794,7 @@
       <c r="E197" t="n">
         <v>4.31840152272048</v>
       </c>
-      <c r="F197" s="3" t="n">
+      <c r="F197" t="n">
         <v>22.14741165310506</v>
       </c>
     </row>
@@ -4842,7 +4818,7 @@
       <c r="E198" t="n">
         <v>0.2229332193224324</v>
       </c>
-      <c r="F198" s="2" t="n">
+      <c r="F198" t="n">
         <v>-2.375740516486508</v>
       </c>
     </row>
@@ -4862,7 +4838,7 @@
       <c r="E199" t="n">
         <v>0.1882951873893342</v>
       </c>
-      <c r="F199" s="3" t="n">
+      <c r="F199" t="n">
         <v>26.83303317244866</v>
       </c>
     </row>
@@ -4886,7 +4862,7 @@
       <c r="E200" t="n">
         <v>0.351057901312641</v>
       </c>
-      <c r="F200" s="2" t="n">
+      <c r="F200" t="n">
         <v>2.271578893448276</v>
       </c>
     </row>
@@ -4906,7 +4882,7 @@
       <c r="E201" t="n">
         <v>0.3007488657664225</v>
       </c>
-      <c r="F201" s="3" t="n">
+      <c r="F201" t="n">
         <v>10.51470133190638</v>
       </c>
     </row>
@@ -4930,7 +4906,7 @@
       <c r="E202" t="n">
         <v>16.23184470338526</v>
       </c>
-      <c r="F202" s="2" t="n">
+      <c r="F202" t="n">
         <v>2.111843904124217</v>
       </c>
     </row>
@@ -4950,7 +4926,7 @@
       <c r="E203" t="n">
         <v>15.11448015374481</v>
       </c>
-      <c r="F203" s="3" t="n">
+      <c r="F203" t="n">
         <v>18.57863798107748</v>
       </c>
     </row>
@@ -4974,7 +4950,7 @@
       <c r="E204" t="n">
         <v>0.150306032728396</v>
       </c>
-      <c r="F204" s="5" t="n">
+      <c r="F204" t="n">
         <v>-1.974921563299898</v>
       </c>
     </row>
@@ -4994,7 +4970,7 @@
       <c r="E205" t="n">
         <v>0.09356861447491503</v>
       </c>
-      <c r="F205" s="4" t="n">
+      <c r="F205" t="n">
         <v>4.000580991509802</v>
       </c>
     </row>
@@ -5018,7 +4994,7 @@
       <c r="E206" t="n">
         <v>9.565655273456851</v>
       </c>
-      <c r="F206" s="2" t="n">
+      <c r="F206" t="n">
         <v>-1.667674066950738</v>
       </c>
     </row>
@@ -5038,7 +5014,7 @@
       <c r="E207" t="n">
         <v>7.919835153614173</v>
       </c>
-      <c r="F207" s="4" t="n">
+      <c r="F207" t="n">
         <v>-6.088861037880947</v>
       </c>
     </row>
@@ -5062,7 +5038,7 @@
       <c r="E208" t="n">
         <v>2.029435058291404</v>
       </c>
-      <c r="F208" s="2" t="n">
+      <c r="F208" t="n">
         <v>-1.272885578042862</v>
       </c>
     </row>
@@ -5082,7 +5058,7 @@
       <c r="E209" t="n">
         <v>1.864203829159841</v>
       </c>
-      <c r="F209" s="3" t="n">
+      <c r="F209" t="n">
         <v>12.23657785116913</v>
       </c>
     </row>
@@ -5106,7 +5082,7 @@
       <c r="E210" t="n">
         <v>0.1629727380724443</v>
       </c>
-      <c r="F210" s="2" t="n">
+      <c r="F210" t="n">
         <v>-0.6039006023497901</v>
       </c>
     </row>
@@ -5126,7 +5102,7 @@
       <c r="E211" t="n">
         <v>0.1191500397662421</v>
       </c>
-      <c r="F211" s="5" t="n">
+      <c r="F211" t="n">
         <v>-12.35033149877573</v>
       </c>
     </row>
@@ -5150,7 +5126,7 @@
       <c r="E212" t="n">
         <v>6.200924118218768</v>
       </c>
-      <c r="F212" s="2" t="n">
+      <c r="F212" t="n">
         <v>0.4909909560942443</v>
       </c>
     </row>
@@ -5170,7 +5146,7 @@
       <c r="E213" t="n">
         <v>5.516336537822371</v>
       </c>
-      <c r="F213" s="3" t="n">
+      <c r="F213" t="n">
         <v>16.80629262179525</v>
       </c>
     </row>
@@ -5194,7 +5170,7 @@
       <c r="E214" t="n">
         <v>0.1548122884455701</v>
       </c>
-      <c r="F214" s="2" t="n">
+      <c r="F214" t="n">
         <v>0.419373065961838</v>
       </c>
     </row>
@@ -5214,7 +5190,7 @@
       <c r="E215" t="n">
         <v>0.1305741931439014</v>
       </c>
-      <c r="F215" s="3" t="n">
+      <c r="F215" t="n">
         <v>14.93595391073431</v>
       </c>
     </row>
@@ -5238,7 +5214,7 @@
       <c r="E216" t="n">
         <v>5.891091356781182</v>
       </c>
-      <c r="F216" s="2" t="n">
+      <c r="F216" t="n">
         <v>0.3328850799798982</v>
       </c>
     </row>
@@ -5258,7 +5234,7 @@
       <c r="E217" t="n">
         <v>5.137539663861552</v>
       </c>
-      <c r="F217" s="4" t="n">
+      <c r="F217" t="n">
         <v>7.137116485760957</v>
       </c>
     </row>
@@ -5282,7 +5258,7 @@
       <c r="E218" t="n">
         <v>0.002754821179999191</v>
       </c>
-      <c r="F218" s="2" t="n">
+      <c r="F218" t="n">
         <v>-0.317295845854381</v>
       </c>
     </row>
@@ -5302,7 +5278,7 @@
       <c r="E219" t="n">
         <v>0.002420579208946875</v>
       </c>
-      <c r="F219" s="3" t="n">
+      <c r="F219" t="n">
         <v>73.35573289797712</v>
       </c>
     </row>
@@ -5326,7 +5302,7 @@
       <c r="E220" t="n">
         <v>0.7711705618937795</v>
       </c>
-      <c r="F220" s="2" t="n">
+      <c r="F220" t="n">
         <v>-0.2967064485199597</v>
       </c>
     </row>
@@ -5346,7 +5322,7 @@
       <c r="E221" t="n">
         <v>0.723244590881796</v>
       </c>
-      <c r="F221" s="4" t="n">
+      <c r="F221" t="n">
         <v>7.959930940602251</v>
       </c>
     </row>
